--- a/DressUp/Config/ScrollViewTem.xlsx
+++ b/DressUp/Config/ScrollViewTem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\unityproject\dress\ADB Unity Project\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\DressUp\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E7FE0-588A-4C18-AE8F-1775BD77D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27B028A-87B0-4E6A-8FB0-9E8623638BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="67">
   <si>
     <t>#key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,227 +72,235 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>车辆序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车辆</t>
+    <t>Location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否拥有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabLocation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/KartUI/Kart0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/KartUI/Kart1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/KartUI/Kart2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/KartUI/Kart3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/KartUI/Kart4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Face/Face_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Face/Face_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Face/Face_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Face/Face_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Face/Face_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Hair/Hair_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Hair/Hair_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Hair/Hair_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Hair/Hair_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Pants/Hair_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Pants/Pants_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Pants/Pants_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Pants/Pants_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Pants/Pants_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Pants/Pants_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Shoes/Shoes_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Shoes/Shoes_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Shoes/Shoes_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Shoes/Shoes_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Shoes/Shoes_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Skirt/Skirt_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Skirt/Skirt_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Skirt/Skirt_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Skirt/Skirt_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Skirt/Skirt_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Skirt2/Skirt2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以不穿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearOther</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理其他位置,用;隔开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants;Top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Owned</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否拥有</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrefabLocation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Face</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hair</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pants</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shoes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skirt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textures/KartUI/Kart0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textures/KartUI/Kart1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textures/KartUI/Kart2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textures/KartUI/Kart3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Textures/KartUI/Kart4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Face/Face_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Face/Face_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Face/Face_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Face/Face_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Face/Face_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Hair/Hair_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Hair/Hair_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Hair/Hair_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Hair/Hair_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Pants/Hair_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Pants/Pants_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Pants/Pants_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Pants/Pants_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Pants/Pants_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Pants/Pants_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Shoes/Shoes_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Shoes/Shoes_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Shoes/Shoes_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Shoes/Shoes_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Shoes/Shoes_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Skirt/Skirt_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Skirt/Skirt_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Skirt/Skirt_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Skirt/Skirt_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Skirt/Skirt_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skirt2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AvatarParts/Skirt2/Skirt2_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanNull</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可以不穿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClearOther</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理其他位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skirt:Skirt2</t>
+    <t>部位序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarParts/Suit/Suit_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab位置(第一件为默认装扮)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1794,21 +1802,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2"/>
-    <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="44.75" style="4" customWidth="1"/>
     <col min="4" max="6" width="15.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1819,19 +1828,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -1842,566 +1851,587 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DressUp/Config/ScrollViewTem.xlsx
+++ b/DressUp/Config/ScrollViewTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\DressUp\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27B028A-87B0-4E6A-8FB0-9E8623638BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FA70CF-8797-4BE0-AF52-CB91E673B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="69">
   <si>
     <t>#key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pants;Top</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +297,18 @@
   </si>
   <si>
     <t>prefab位置(第一件为默认装扮)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants;Top;Coat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -461,6 +469,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1226,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,6 +1284,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="253" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="253" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="252" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1808,7 +1831,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1868,13 +1891,13 @@
     </row>
     <row r="3" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -2108,6 +2131,9 @@
       <c r="F14" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G14" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
@@ -2128,6 +2154,9 @@
       <c r="F15" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G15" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
@@ -2148,6 +2177,9 @@
       <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G16" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
@@ -2168,6 +2200,9 @@
       <c r="F17" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G17" s="14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
@@ -2188,7 +2223,9 @@
       <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
@@ -2309,6 +2346,9 @@
       <c r="F24" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G24" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
@@ -2329,6 +2369,9 @@
       <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G25" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
@@ -2349,6 +2392,9 @@
       <c r="F26" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G26" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
@@ -2369,6 +2415,9 @@
       <c r="F27" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G27" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
@@ -2389,7 +2438,9 @@
       <c r="F28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
@@ -2410,6 +2461,9 @@
       <c r="F29" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G29" s="15" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
@@ -2419,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>22</v>
@@ -2431,7 +2485,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
